--- a/nriss-patch-1/ig/StructureDefinition-tddui-task-bilan.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-task-bilan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Task</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Task|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -733,7 +733,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -928,7 +928,7 @@
     <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-j366-statut-bilan-projet-personnalise-ms</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-j366-statut-bilan-projet-personnalise-ms|20250415120000</t>
   </si>
   <si>
     <t>categorieBilan</t>
@@ -1516,7 +1516,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-bilan-valueset</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-bilan-valueset|2.2.0-ballot</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -1672,7 +1672,7 @@
     <t>Task.input:pieceJointe.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1790,7 +1790,7 @@
     <t>authorReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.1.0)
 </t>
   </si>
   <si>
@@ -1873,7 +1873,7 @@
     <t>Outputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/output-tddui-task-bilan-valueset</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/output-tddui-task-bilan-valueset|2.2.0-ballot</t>
   </si>
   <si>
     <t>Task.output.value[x]</t>
@@ -2256,7 +2256,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="113.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.8203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
